--- a/MASTER spreadsheet of community summaries.xlsx
+++ b/MASTER spreadsheet of community summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peri\Dropbox\Delta\Projects\Laboratory\Algal blooms, bacterial counts  for community\For Luke's HAB data display\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF07357-D314-4D30-95C1-FAED31AA749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACBC88-921D-4B46-9B4F-CED6232A12E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9286397E-2757-492B-865A-39B2D6A15FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cells per mL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="143">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,204 @@
   </si>
   <si>
     <t>COLP5110</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>HANC5232</t>
+  </si>
+  <si>
+    <t>Garden Island</t>
+  </si>
+  <si>
+    <t>Grange</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>Port Wakefield</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>Streaky Bay - 2km offshore</t>
+  </si>
+  <si>
+    <t>Thompson Beach</t>
+  </si>
+  <si>
+    <t>Westlakes martin court</t>
+  </si>
+  <si>
+    <t>Olivers Reef</t>
+  </si>
+  <si>
+    <t>Seal Island</t>
+  </si>
+  <si>
+    <t>Wright Island</t>
+  </si>
+  <si>
+    <t>West Island</t>
+  </si>
+  <si>
+    <t>Waitpinga Cliffs</t>
+  </si>
+  <si>
+    <t>Knights Beach</t>
+  </si>
+  <si>
+    <t>Waitpinga Beach</t>
+  </si>
+  <si>
+    <t>Middleton Beach</t>
+  </si>
+  <si>
+    <t>Bluff Jetty</t>
+  </si>
+  <si>
+    <t>Boomers Beach</t>
+  </si>
+  <si>
+    <t>Largs North Boat Ramp</t>
+  </si>
+  <si>
+    <t>Seacliff Reef Dive Surface</t>
+  </si>
+  <si>
+    <t>Seacliff Reef Dive 13.9m depth</t>
+  </si>
+  <si>
+    <t>Port Eliot/ Pullen Island</t>
+  </si>
+  <si>
+    <t>Pullen Island Land side</t>
+  </si>
+  <si>
+    <t>Pullen Island ocean side</t>
+  </si>
+  <si>
+    <t>Barker Knoll</t>
+  </si>
+  <si>
+    <t>Murray Mouth</t>
+  </si>
+  <si>
+    <t>Goolwa Barrage</t>
+  </si>
+  <si>
+    <t>Pipeline Outer Harbor</t>
+  </si>
+  <si>
+    <t>St Kilda Channel</t>
+  </si>
+  <si>
+    <t>Boat Ramp Outer Harbor</t>
+  </si>
+  <si>
+    <t>Beacon 26 Outer Harbor</t>
+  </si>
+  <si>
+    <t>Barkers Inlet</t>
+  </si>
+  <si>
+    <t>Mid Channel Outer Harbor</t>
+  </si>
+  <si>
+    <t>Channel Bank</t>
+  </si>
+  <si>
+    <t>RSAYS Marina</t>
+  </si>
+  <si>
+    <t>Outside Mangroves St K side</t>
+  </si>
+  <si>
+    <t>Breakwater side RSAYS</t>
+  </si>
+  <si>
+    <t>Port Hughes Dive surface</t>
+  </si>
+  <si>
+    <t>Port Hughes Dive 6.5m depth</t>
+  </si>
+  <si>
+    <t>Whyalla Surf Life Saving Club</t>
+  </si>
+  <si>
+    <t>Point Lowly Beach</t>
+  </si>
+  <si>
+    <t>Carrackalinga Haycock Pt</t>
+  </si>
+  <si>
+    <t>Normanville Beach</t>
+  </si>
+  <si>
+    <t>Encounter Lake Tabernacle End</t>
+  </si>
+  <si>
+    <t>Port Adelaide Sailing Club</t>
+  </si>
+  <si>
+    <t>Wright Island Yilki Reef</t>
+  </si>
+  <si>
+    <t>Wright Island Dry Reef</t>
+  </si>
+  <si>
+    <t>Weatherald Rd Footbridge</t>
+  </si>
+  <si>
+    <t>Saltfloot Car Bridge</t>
+  </si>
+  <si>
+    <t>Saltfloot Bridge adjacent foot</t>
+  </si>
+  <si>
+    <t>Port Noarlunga FC Britain Rd</t>
+  </si>
+  <si>
+    <t>SEAS5211</t>
+  </si>
+  <si>
+    <t>Hallett Cove</t>
+  </si>
+  <si>
+    <t>Hallettt Cove</t>
+  </si>
+  <si>
+    <t>Cnr River Rd and New St Carpark</t>
+  </si>
+  <si>
+    <t>River Rd under Railway carpark</t>
+  </si>
+  <si>
+    <t>River Rd Perry's Bend</t>
+  </si>
+  <si>
+    <t>about 300m NW of coast to Vines Rail Track Bridge</t>
+  </si>
+  <si>
+    <t>Beach SE of Coast to Vines Rail track bridge</t>
+  </si>
+  <si>
+    <t>Hall St footpath to landing</t>
+  </si>
+  <si>
+    <t>Hall Cresent Car bridge</t>
+  </si>
+  <si>
+    <t>Suspension Bridge Paringa Pde</t>
+  </si>
+  <si>
+    <t>American River Cannery Trail start</t>
+  </si>
+  <si>
+    <t>American River Jetty</t>
   </si>
 </sst>
 </file>
@@ -674,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F307807-E5C9-4450-88E0-159CBB3E9A67}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O204" sqref="O204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,9 +895,10 @@
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4482,6 +4681,3526 @@
         <v>76</v>
       </c>
     </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B94">
+        <v>-35.01558</v>
+      </c>
+      <c r="C94">
+        <v>138.51375999999999</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H94">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>7</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>22</v>
+      </c>
+      <c r="P94" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B95">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C95">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45889</v>
+      </c>
+      <c r="H95">
+        <v>552</v>
+      </c>
+      <c r="I95">
+        <v>500</v>
+      </c>
+      <c r="K95">
+        <v>21</v>
+      </c>
+      <c r="N95">
+        <v>7</v>
+      </c>
+      <c r="O95">
+        <v>580</v>
+      </c>
+      <c r="P95" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C96">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H96">
+        <v>636</v>
+      </c>
+      <c r="I96">
+        <v>609</v>
+      </c>
+      <c r="K96">
+        <v>6</v>
+      </c>
+      <c r="N96">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>655</v>
+      </c>
+      <c r="P96" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C97">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H97">
+        <v>156</v>
+      </c>
+      <c r="I97">
+        <v>140</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+      <c r="N97">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <v>168</v>
+      </c>
+      <c r="P97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C98">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H98">
+        <v>1278</v>
+      </c>
+      <c r="I98">
+        <v>965</v>
+      </c>
+      <c r="K98">
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>23</v>
+      </c>
+      <c r="O98">
+        <v>1320</v>
+      </c>
+      <c r="P98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C99">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H99">
+        <v>695</v>
+      </c>
+      <c r="I99">
+        <v>522</v>
+      </c>
+      <c r="K99">
+        <v>206</v>
+      </c>
+      <c r="N99">
+        <v>32</v>
+      </c>
+      <c r="O99">
+        <v>934</v>
+      </c>
+      <c r="P99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C100">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H100">
+        <v>362</v>
+      </c>
+      <c r="I100">
+        <v>173</v>
+      </c>
+      <c r="K100">
+        <v>131</v>
+      </c>
+      <c r="N100">
+        <v>11</v>
+      </c>
+      <c r="O100">
+        <v>504</v>
+      </c>
+      <c r="P100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101">
+        <v>-34.90352</v>
+      </c>
+      <c r="C101">
+        <v>138.48815999999999</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H101">
+        <v>22</v>
+      </c>
+      <c r="I101">
+        <v>14</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101">
+        <v>28</v>
+      </c>
+      <c r="P101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C102">
+        <v>138.49587</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45885</v>
+      </c>
+      <c r="H102">
+        <v>34</v>
+      </c>
+      <c r="I102">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>6</v>
+      </c>
+      <c r="O102">
+        <v>46</v>
+      </c>
+      <c r="P102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C103">
+        <v>138.49587</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H103">
+        <v>1518</v>
+      </c>
+      <c r="I103">
+        <v>1494</v>
+      </c>
+      <c r="K103">
+        <v>60</v>
+      </c>
+      <c r="N103">
+        <v>6</v>
+      </c>
+      <c r="O103">
+        <v>1584</v>
+      </c>
+      <c r="P103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C104">
+        <v>138.49587</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45914</v>
+      </c>
+      <c r="H104">
+        <v>534</v>
+      </c>
+      <c r="I104">
+        <v>492</v>
+      </c>
+      <c r="K104">
+        <v>70</v>
+      </c>
+      <c r="N104">
+        <v>34</v>
+      </c>
+      <c r="O104">
+        <v>638</v>
+      </c>
+      <c r="P104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C105">
+        <v>138.49587</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45920</v>
+      </c>
+      <c r="H105">
+        <v>526</v>
+      </c>
+      <c r="I105">
+        <v>492</v>
+      </c>
+      <c r="K105">
+        <v>24</v>
+      </c>
+      <c r="N105">
+        <v>24</v>
+      </c>
+      <c r="O105">
+        <v>574</v>
+      </c>
+      <c r="P105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C106">
+        <v>138.49587</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H106">
+        <v>201</v>
+      </c>
+      <c r="I106">
+        <v>182</v>
+      </c>
+      <c r="K106">
+        <v>8</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>211</v>
+      </c>
+      <c r="P106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107">
+        <v>-35.507370000000002</v>
+      </c>
+      <c r="C107">
+        <v>138.70943</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45886</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>22</v>
+      </c>
+      <c r="P107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108">
+        <v>-34.190849999999998</v>
+      </c>
+      <c r="C108">
+        <v>138.14476999999999</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H108">
+        <v>169</v>
+      </c>
+      <c r="I108">
+        <v>105</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>14</v>
+      </c>
+      <c r="O108">
+        <v>186</v>
+      </c>
+      <c r="P108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109">
+        <v>-34.190849999999998</v>
+      </c>
+      <c r="C109">
+        <v>138.14476999999999</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>8</v>
+      </c>
+      <c r="O109">
+        <v>32</v>
+      </c>
+      <c r="P109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C110">
+        <v>138.47788</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H110">
+        <v>22</v>
+      </c>
+      <c r="I110">
+        <v>19</v>
+      </c>
+      <c r="K110">
+        <v>8</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <v>35</v>
+      </c>
+      <c r="P110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C111">
+        <v>138.47788</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H111">
+        <v>239</v>
+      </c>
+      <c r="I111">
+        <v>226</v>
+      </c>
+      <c r="K111">
+        <v>23</v>
+      </c>
+      <c r="N111">
+        <v>7</v>
+      </c>
+      <c r="O111">
+        <v>269</v>
+      </c>
+      <c r="P111" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B112">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C112">
+        <v>138.47788</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H112">
+        <v>163</v>
+      </c>
+      <c r="I112">
+        <v>153</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>172</v>
+      </c>
+      <c r="P112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B113">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C113">
+        <v>138.47788</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H113">
+        <v>141</v>
+      </c>
+      <c r="I113">
+        <v>117</v>
+      </c>
+      <c r="K113">
+        <v>21</v>
+      </c>
+      <c r="N113">
+        <v>31</v>
+      </c>
+      <c r="O113">
+        <v>193</v>
+      </c>
+      <c r="P113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114">
+        <v>-32.771623179292703</v>
+      </c>
+      <c r="C114">
+        <v>134.21122774492099</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45920</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115">
+        <v>-34.486179999999997</v>
+      </c>
+      <c r="C115">
+        <v>138.28238999999999</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H115">
+        <v>129</v>
+      </c>
+      <c r="I115">
+        <v>116</v>
+      </c>
+      <c r="K115">
+        <v>50</v>
+      </c>
+      <c r="N115">
+        <v>19</v>
+      </c>
+      <c r="O115">
+        <v>199</v>
+      </c>
+      <c r="P115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116">
+        <v>-34.486179999999997</v>
+      </c>
+      <c r="C116">
+        <v>138.28238999999999</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45908</v>
+      </c>
+      <c r="H116">
+        <v>190</v>
+      </c>
+      <c r="I116">
+        <v>120</v>
+      </c>
+      <c r="K116">
+        <v>156</v>
+      </c>
+      <c r="N116">
+        <v>48</v>
+      </c>
+      <c r="O116">
+        <v>394</v>
+      </c>
+      <c r="P116" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C117">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45892</v>
+      </c>
+      <c r="H117">
+        <v>633</v>
+      </c>
+      <c r="I117">
+        <v>610</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>18</v>
+      </c>
+      <c r="O117">
+        <v>653</v>
+      </c>
+      <c r="P117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C118">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45898</v>
+      </c>
+      <c r="H118">
+        <v>578</v>
+      </c>
+      <c r="I118">
+        <v>549</v>
+      </c>
+      <c r="K118">
+        <v>9</v>
+      </c>
+      <c r="N118">
+        <v>13</v>
+      </c>
+      <c r="O118">
+        <v>599</v>
+      </c>
+      <c r="P118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C119">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45904</v>
+      </c>
+      <c r="H119">
+        <v>117</v>
+      </c>
+      <c r="I119">
+        <v>108</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+      <c r="N119">
+        <v>7</v>
+      </c>
+      <c r="O119">
+        <v>130</v>
+      </c>
+      <c r="P119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C120">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45918</v>
+      </c>
+      <c r="H120">
+        <v>573</v>
+      </c>
+      <c r="I120">
+        <v>554</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>22</v>
+      </c>
+      <c r="O120">
+        <v>599</v>
+      </c>
+      <c r="P120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C121">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45926</v>
+      </c>
+      <c r="H121">
+        <v>411</v>
+      </c>
+      <c r="I121">
+        <v>354</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>9</v>
+      </c>
+      <c r="O121">
+        <v>424</v>
+      </c>
+      <c r="P121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C122">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45942</v>
+      </c>
+      <c r="F122">
+        <v>278</v>
+      </c>
+      <c r="G122">
+        <v>56</v>
+      </c>
+      <c r="H122">
+        <v>778</v>
+      </c>
+      <c r="I122">
+        <v>556</v>
+      </c>
+      <c r="J122">
+        <v>333</v>
+      </c>
+      <c r="K122">
+        <v>1278</v>
+      </c>
+      <c r="L122">
+        <v>111</v>
+      </c>
+      <c r="M122">
+        <v>6</v>
+      </c>
+      <c r="O122">
+        <v>3444</v>
+      </c>
+      <c r="P122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C123">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H123">
+        <v>278</v>
+      </c>
+      <c r="I123">
+        <v>111</v>
+      </c>
+      <c r="O123">
+        <v>278</v>
+      </c>
+      <c r="P123" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C124">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H124">
+        <v>222</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>222</v>
+      </c>
+      <c r="P124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>89</v>
+      </c>
+      <c r="B125">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C125">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H125">
+        <v>944</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>944</v>
+      </c>
+      <c r="P125" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126">
+        <v>-35.6048446</v>
+      </c>
+      <c r="C126">
+        <v>138.59278499999999</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H126">
+        <v>167</v>
+      </c>
+      <c r="I126">
+        <v>56</v>
+      </c>
+      <c r="O126">
+        <v>167</v>
+      </c>
+      <c r="P126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C127">
+        <v>138.56833</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45823</v>
+      </c>
+      <c r="H127">
+        <v>56</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>56</v>
+      </c>
+      <c r="P127" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128">
+        <v>-35.536441500000002</v>
+      </c>
+      <c r="C128">
+        <v>138.6782326</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45820</v>
+      </c>
+      <c r="H128">
+        <v>777</v>
+      </c>
+      <c r="I128">
+        <v>333</v>
+      </c>
+      <c r="O128">
+        <v>777</v>
+      </c>
+      <c r="P128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129">
+        <v>-35.6360308</v>
+      </c>
+      <c r="C129">
+        <v>138.5048433</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45819</v>
+      </c>
+      <c r="H129">
+        <v>610</v>
+      </c>
+      <c r="I129">
+        <v>333</v>
+      </c>
+      <c r="O129">
+        <v>610</v>
+      </c>
+      <c r="P129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>92</v>
+      </c>
+      <c r="B130">
+        <v>-35.536441500000002</v>
+      </c>
+      <c r="C130">
+        <v>138.6782326</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45826</v>
+      </c>
+      <c r="H130">
+        <v>2111</v>
+      </c>
+      <c r="I130">
+        <v>333</v>
+      </c>
+      <c r="O130">
+        <v>2111</v>
+      </c>
+      <c r="P130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131">
+        <v>-35.513599999999997</v>
+      </c>
+      <c r="C131">
+        <v>138.72001900000001</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45826</v>
+      </c>
+      <c r="H131">
+        <v>1056</v>
+      </c>
+      <c r="I131">
+        <v>333</v>
+      </c>
+      <c r="O131">
+        <v>1056</v>
+      </c>
+      <c r="P131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132">
+        <v>-35.513599999999997</v>
+      </c>
+      <c r="C132">
+        <v>138.72001900000001</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45839</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>199444</v>
+      </c>
+      <c r="O132">
+        <v>199444</v>
+      </c>
+      <c r="P132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133">
+        <v>-35.58858</v>
+      </c>
+      <c r="C133">
+        <v>138.60474600000001</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45850</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>5</v>
+      </c>
+      <c r="P133" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134">
+        <v>-35.536230000000003</v>
+      </c>
+      <c r="C134">
+        <v>138.66919999999999</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45854</v>
+      </c>
+      <c r="G134">
+        <v>83</v>
+      </c>
+      <c r="H134">
+        <v>250</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>28</v>
+      </c>
+      <c r="O134">
+        <v>361</v>
+      </c>
+      <c r="P134" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>97</v>
+      </c>
+      <c r="B135">
+        <v>-34.813881000000002</v>
+      </c>
+      <c r="C135">
+        <v>138.511787</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H135">
+        <v>1667</v>
+      </c>
+      <c r="I135">
+        <v>722</v>
+      </c>
+      <c r="J135">
+        <v>1000</v>
+      </c>
+      <c r="O135">
+        <v>2667</v>
+      </c>
+      <c r="P135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136">
+        <v>-35.037733000000003</v>
+      </c>
+      <c r="C136">
+        <v>138.490666</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H136">
+        <v>222</v>
+      </c>
+      <c r="I136">
+        <v>56</v>
+      </c>
+      <c r="K136">
+        <v>56</v>
+      </c>
+      <c r="N136">
+        <v>1111</v>
+      </c>
+      <c r="O136">
+        <v>1389</v>
+      </c>
+      <c r="P136" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137">
+        <v>-35.030088999999997</v>
+      </c>
+      <c r="C137">
+        <v>138.49193500000001</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45858</v>
+      </c>
+      <c r="F137">
+        <v>56</v>
+      </c>
+      <c r="H137">
+        <v>56</v>
+      </c>
+      <c r="I137">
+        <v>56</v>
+      </c>
+      <c r="K137">
+        <v>56</v>
+      </c>
+      <c r="N137">
+        <v>1111</v>
+      </c>
+      <c r="O137">
+        <v>1279</v>
+      </c>
+      <c r="P137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138">
+        <v>-35.551524800000003</v>
+      </c>
+      <c r="C138">
+        <v>138.6856698</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H138">
+        <v>444</v>
+      </c>
+      <c r="I138">
+        <v>333</v>
+      </c>
+      <c r="N138">
+        <v>556</v>
+      </c>
+      <c r="O138">
+        <v>1000</v>
+      </c>
+      <c r="P138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C139">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H139">
+        <v>111</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>111</v>
+      </c>
+      <c r="P139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C140">
+        <v>138.6913744</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H140">
+        <v>667</v>
+      </c>
+      <c r="I140">
+        <v>333</v>
+      </c>
+      <c r="N140">
+        <v>1000</v>
+      </c>
+      <c r="O140">
+        <v>1667</v>
+      </c>
+      <c r="P140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C141">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45858</v>
+      </c>
+      <c r="F141">
+        <v>56</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>333</v>
+      </c>
+      <c r="O141">
+        <v>389</v>
+      </c>
+      <c r="P141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>87</v>
+      </c>
+      <c r="B142">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C142">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H142">
+        <v>111</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>500</v>
+      </c>
+      <c r="O142">
+        <v>667</v>
+      </c>
+      <c r="P142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143">
+        <v>-35.540188999999998</v>
+      </c>
+      <c r="C143">
+        <v>138.689618</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H143">
+        <v>56</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>722</v>
+      </c>
+      <c r="O143">
+        <v>778</v>
+      </c>
+      <c r="P143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>91</v>
+      </c>
+      <c r="B144">
+        <v>-35.620086000000001</v>
+      </c>
+      <c r="C144">
+        <v>138.56635800000001</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45858</v>
+      </c>
+      <c r="H144">
+        <v>111</v>
+      </c>
+      <c r="I144">
+        <v>56</v>
+      </c>
+      <c r="N144">
+        <v>667</v>
+      </c>
+      <c r="O144">
+        <v>778</v>
+      </c>
+      <c r="P144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145">
+        <v>-35.560513800000003</v>
+      </c>
+      <c r="C145">
+        <v>138.89389159999999</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E145">
+        <v>167</v>
+      </c>
+      <c r="G145">
+        <v>111</v>
+      </c>
+      <c r="H145">
+        <v>167</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>278</v>
+      </c>
+      <c r="L145">
+        <v>167</v>
+      </c>
+      <c r="N145">
+        <v>2221</v>
+      </c>
+      <c r="O145">
+        <v>3111</v>
+      </c>
+      <c r="P145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B146">
+        <v>-35.557317400000002</v>
+      </c>
+      <c r="C146">
+        <v>138.88557399999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E146">
+        <v>56</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>56</v>
+      </c>
+      <c r="K146">
+        <v>56</v>
+      </c>
+      <c r="L146">
+        <v>56</v>
+      </c>
+      <c r="N146">
+        <v>1776</v>
+      </c>
+      <c r="O146">
+        <v>2000</v>
+      </c>
+      <c r="P146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>105</v>
+      </c>
+      <c r="B147">
+        <v>-35.5272237</v>
+      </c>
+      <c r="C147">
+        <v>138.80833699999999</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45860</v>
+      </c>
+      <c r="E147">
+        <v>56</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1000</v>
+      </c>
+      <c r="O147">
+        <v>1056</v>
+      </c>
+      <c r="P147" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>106</v>
+      </c>
+      <c r="B148">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C148">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H148">
+        <v>2250</v>
+      </c>
+      <c r="I148">
+        <v>667</v>
+      </c>
+      <c r="K148">
+        <v>1083</v>
+      </c>
+      <c r="N148">
+        <v>1361</v>
+      </c>
+      <c r="O148">
+        <v>4694</v>
+      </c>
+      <c r="P148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>107</v>
+      </c>
+      <c r="B149">
+        <v>-34.755644699999998</v>
+      </c>
+      <c r="C149">
+        <v>138.5168956</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H149">
+        <v>1278</v>
+      </c>
+      <c r="I149">
+        <v>667</v>
+      </c>
+      <c r="K149">
+        <v>1722</v>
+      </c>
+      <c r="N149">
+        <v>944</v>
+      </c>
+      <c r="O149">
+        <v>3944</v>
+      </c>
+      <c r="P149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>108</v>
+      </c>
+      <c r="B150">
+        <v>-34.774178999999997</v>
+      </c>
+      <c r="C150">
+        <v>138.4862411</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H150">
+        <v>390</v>
+      </c>
+      <c r="I150">
+        <v>167</v>
+      </c>
+      <c r="K150">
+        <v>1889</v>
+      </c>
+      <c r="N150">
+        <v>1556</v>
+      </c>
+      <c r="O150">
+        <v>3835</v>
+      </c>
+      <c r="P150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151">
+        <v>-34.761991500000001</v>
+      </c>
+      <c r="C151">
+        <v>138.5044207</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45865</v>
+      </c>
+      <c r="H151">
+        <v>1001</v>
+      </c>
+      <c r="I151">
+        <v>556</v>
+      </c>
+      <c r="K151">
+        <v>1000</v>
+      </c>
+      <c r="N151">
+        <v>1222</v>
+      </c>
+      <c r="O151">
+        <v>3223</v>
+      </c>
+      <c r="P151" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>106</v>
+      </c>
+      <c r="B152">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C152">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H152">
+        <v>1333</v>
+      </c>
+      <c r="I152">
+        <v>500</v>
+      </c>
+      <c r="K152">
+        <v>1889</v>
+      </c>
+      <c r="N152">
+        <v>667</v>
+      </c>
+      <c r="O152">
+        <v>3889</v>
+      </c>
+      <c r="P152" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153">
+        <v>-34.753135</v>
+      </c>
+      <c r="C153">
+        <v>138.52022500000001</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H153">
+        <v>2445</v>
+      </c>
+      <c r="I153">
+        <v>1111</v>
+      </c>
+      <c r="K153">
+        <v>1278</v>
+      </c>
+      <c r="N153">
+        <v>833</v>
+      </c>
+      <c r="O153">
+        <v>4556</v>
+      </c>
+      <c r="P153" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <v>-34.745396</v>
+      </c>
+      <c r="C154">
+        <v>138.48245299999999</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45867</v>
+      </c>
+      <c r="H154">
+        <v>2111</v>
+      </c>
+      <c r="I154">
+        <v>1000</v>
+      </c>
+      <c r="K154">
+        <v>1778</v>
+      </c>
+      <c r="N154">
+        <v>1056</v>
+      </c>
+      <c r="O154">
+        <v>4945</v>
+      </c>
+      <c r="P154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155">
+        <v>-34.763468000000003</v>
+      </c>
+      <c r="C155">
+        <v>138.499312</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H155">
+        <v>3723</v>
+      </c>
+      <c r="I155">
+        <v>1944</v>
+      </c>
+      <c r="K155">
+        <v>6055</v>
+      </c>
+      <c r="N155">
+        <v>1278</v>
+      </c>
+      <c r="O155">
+        <v>11056</v>
+      </c>
+      <c r="P155" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>113</v>
+      </c>
+      <c r="B156">
+        <v>-34.775306999999998</v>
+      </c>
+      <c r="C156">
+        <v>138.49066300000001</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45868</v>
+      </c>
+      <c r="H156">
+        <v>22111</v>
+      </c>
+      <c r="I156">
+        <v>10944</v>
+      </c>
+      <c r="K156">
+        <v>5556</v>
+      </c>
+      <c r="N156">
+        <v>3389</v>
+      </c>
+      <c r="O156">
+        <v>31056</v>
+      </c>
+      <c r="P156" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>114</v>
+      </c>
+      <c r="B157">
+        <v>-34.740545900000001</v>
+      </c>
+      <c r="C157">
+        <v>138.5199417</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H157">
+        <v>5000</v>
+      </c>
+      <c r="I157">
+        <v>2222</v>
+      </c>
+      <c r="K157">
+        <v>10400</v>
+      </c>
+      <c r="N157">
+        <v>8778</v>
+      </c>
+      <c r="O157">
+        <v>24178</v>
+      </c>
+      <c r="P157" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>106</v>
+      </c>
+      <c r="B158">
+        <v>-34.775959999999998</v>
+      </c>
+      <c r="C158">
+        <v>138.51910670000001</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H158">
+        <v>890</v>
+      </c>
+      <c r="I158">
+        <v>222</v>
+      </c>
+      <c r="K158">
+        <v>3611</v>
+      </c>
+      <c r="N158">
+        <v>444</v>
+      </c>
+      <c r="O158">
+        <v>4945</v>
+      </c>
+      <c r="P158" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>115</v>
+      </c>
+      <c r="B159">
+        <v>-34.767232</v>
+      </c>
+      <c r="C159">
+        <v>138.47986599999999</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45869</v>
+      </c>
+      <c r="H159">
+        <v>2000</v>
+      </c>
+      <c r="I159">
+        <v>944</v>
+      </c>
+      <c r="K159">
+        <v>5556</v>
+      </c>
+      <c r="N159">
+        <v>1056</v>
+      </c>
+      <c r="O159">
+        <v>8612</v>
+      </c>
+      <c r="P159" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160">
+        <v>-34.075238300000002</v>
+      </c>
+      <c r="C160">
+        <v>137.5442348</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45871</v>
+      </c>
+      <c r="H160">
+        <v>389</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>2056</v>
+      </c>
+      <c r="O160">
+        <v>2445</v>
+      </c>
+      <c r="P160" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161">
+        <v>-34.075238300000002</v>
+      </c>
+      <c r="C161">
+        <v>137.5442348</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45871</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>56</v>
+      </c>
+      <c r="N161">
+        <v>445</v>
+      </c>
+      <c r="O161">
+        <v>501</v>
+      </c>
+      <c r="P161" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>87</v>
+      </c>
+      <c r="B162">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C162">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H162">
+        <v>56</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>56</v>
+      </c>
+      <c r="N162">
+        <v>444</v>
+      </c>
+      <c r="O162">
+        <v>556</v>
+      </c>
+      <c r="P162" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163">
+        <v>-35.540188999999998</v>
+      </c>
+      <c r="C163">
+        <v>138.689618</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H163">
+        <v>56</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>945</v>
+      </c>
+      <c r="O163">
+        <v>1001</v>
+      </c>
+      <c r="P163" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>88</v>
+      </c>
+      <c r="B164">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C164">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H164">
+        <v>1111</v>
+      </c>
+      <c r="I164">
+        <v>389</v>
+      </c>
+      <c r="K164">
+        <v>56</v>
+      </c>
+      <c r="N164">
+        <v>1333</v>
+      </c>
+      <c r="O164">
+        <v>2500</v>
+      </c>
+      <c r="P164" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C165">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H165">
+        <v>167</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>167</v>
+      </c>
+      <c r="P165" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B166">
+        <v>-35.6048446</v>
+      </c>
+      <c r="C166">
+        <v>138.59278499999999</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H166">
+        <v>56</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>389</v>
+      </c>
+      <c r="O166">
+        <v>445</v>
+      </c>
+      <c r="P166" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>91</v>
+      </c>
+      <c r="B167">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C167">
+        <v>138.56833</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45882</v>
+      </c>
+      <c r="H167">
+        <v>56</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>56</v>
+      </c>
+      <c r="P167" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>93</v>
+      </c>
+      <c r="B168">
+        <v>-35.6360308</v>
+      </c>
+      <c r="C168">
+        <v>138.5048433</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H168">
+        <v>722</v>
+      </c>
+      <c r="I168">
+        <v>278</v>
+      </c>
+      <c r="N168">
+        <v>56</v>
+      </c>
+      <c r="O168">
+        <v>778</v>
+      </c>
+      <c r="P168" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>118</v>
+      </c>
+      <c r="B169">
+        <v>-33.040787000000002</v>
+      </c>
+      <c r="C169">
+        <v>137.587109</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45885</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>333</v>
+      </c>
+      <c r="N169">
+        <v>556</v>
+      </c>
+      <c r="O169">
+        <v>889</v>
+      </c>
+      <c r="P169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>119</v>
+      </c>
+      <c r="B170">
+        <v>-32.991777999999996</v>
+      </c>
+      <c r="C170">
+        <v>137.77837500000001</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45885</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>389</v>
+      </c>
+      <c r="O170">
+        <v>389</v>
+      </c>
+      <c r="P170" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>120</v>
+      </c>
+      <c r="B171">
+        <v>-35.420470199999997</v>
+      </c>
+      <c r="C171">
+        <v>138.32294999999999</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45891</v>
+      </c>
+      <c r="E171">
+        <v>56</v>
+      </c>
+      <c r="F171">
+        <v>278</v>
+      </c>
+      <c r="H171">
+        <v>111</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>444</v>
+      </c>
+      <c r="N171">
+        <v>1334</v>
+      </c>
+      <c r="O171">
+        <v>2223</v>
+      </c>
+      <c r="P171" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>121</v>
+      </c>
+      <c r="B172">
+        <v>-35.444941989999997</v>
+      </c>
+      <c r="C172">
+        <v>138.30768499999999</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45891</v>
+      </c>
+      <c r="F172">
+        <v>278</v>
+      </c>
+      <c r="H172">
+        <v>56</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>389</v>
+      </c>
+      <c r="N172">
+        <v>1556</v>
+      </c>
+      <c r="O172">
+        <v>2279</v>
+      </c>
+      <c r="P172" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173">
+        <v>-35.570839499999998</v>
+      </c>
+      <c r="C173">
+        <v>138.60133999999999</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45902</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>278</v>
+      </c>
+      <c r="M173">
+        <v>556</v>
+      </c>
+      <c r="N173">
+        <v>500</v>
+      </c>
+      <c r="O173">
+        <v>1334</v>
+      </c>
+      <c r="P173" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>123</v>
+      </c>
+      <c r="B174">
+        <v>-34.816378</v>
+      </c>
+      <c r="C174">
+        <v>138.5108414</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H174">
+        <v>50667</v>
+      </c>
+      <c r="I174">
+        <v>27667</v>
+      </c>
+      <c r="N174">
+        <v>500</v>
+      </c>
+      <c r="O174">
+        <v>51167</v>
+      </c>
+      <c r="P174" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>87</v>
+      </c>
+      <c r="B175">
+        <v>-35.540277000000003</v>
+      </c>
+      <c r="C175">
+        <v>138.66416599999999</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45921</v>
+      </c>
+      <c r="H175">
+        <v>56</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>278</v>
+      </c>
+      <c r="O175">
+        <v>334</v>
+      </c>
+      <c r="P175" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+      <c r="B176">
+        <v>-35.536745000000003</v>
+      </c>
+      <c r="C176">
+        <v>138.6913744</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F176">
+        <v>56</v>
+      </c>
+      <c r="G176">
+        <v>56</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>111</v>
+      </c>
+      <c r="M176">
+        <v>167</v>
+      </c>
+      <c r="N176">
+        <v>389</v>
+      </c>
+      <c r="O176">
+        <v>779</v>
+      </c>
+      <c r="P176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>88</v>
+      </c>
+      <c r="B177">
+        <v>-35.573300000000003</v>
+      </c>
+      <c r="C177">
+        <v>138.64250000000001</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F177">
+        <v>56</v>
+      </c>
+      <c r="G177">
+        <v>56</v>
+      </c>
+      <c r="H177">
+        <v>111</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>56</v>
+      </c>
+      <c r="K177">
+        <v>56</v>
+      </c>
+      <c r="M177">
+        <v>500</v>
+      </c>
+      <c r="N177">
+        <v>667</v>
+      </c>
+      <c r="O177">
+        <v>1502</v>
+      </c>
+      <c r="P177" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>124</v>
+      </c>
+      <c r="B178">
+        <v>-35.579087000000001</v>
+      </c>
+      <c r="C178">
+        <v>138.60618769999999</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F178">
+        <v>56</v>
+      </c>
+      <c r="G178">
+        <v>56</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>56</v>
+      </c>
+      <c r="M178">
+        <v>278</v>
+      </c>
+      <c r="N178">
+        <v>111</v>
+      </c>
+      <c r="O178">
+        <v>557</v>
+      </c>
+      <c r="P178" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179">
+        <v>-35.574167000000003</v>
+      </c>
+      <c r="C179">
+        <v>138.61528000000001</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45921</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>667</v>
+      </c>
+      <c r="N179">
+        <v>778</v>
+      </c>
+      <c r="O179">
+        <v>1445</v>
+      </c>
+      <c r="P179" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180">
+        <v>-35.6048446</v>
+      </c>
+      <c r="C180">
+        <v>138.59278499999999</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45921</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>167</v>
+      </c>
+      <c r="M180">
+        <v>556</v>
+      </c>
+      <c r="N180">
+        <v>389</v>
+      </c>
+      <c r="O180">
+        <v>1112</v>
+      </c>
+      <c r="P180" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>91</v>
+      </c>
+      <c r="B181">
+        <v>-35.615555999999998</v>
+      </c>
+      <c r="C181">
+        <v>138.56833</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45921</v>
+      </c>
+      <c r="F181">
+        <v>111</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>56</v>
+      </c>
+      <c r="M181">
+        <v>167</v>
+      </c>
+      <c r="N181">
+        <v>444</v>
+      </c>
+      <c r="O181">
+        <v>778</v>
+      </c>
+      <c r="P181" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182">
+        <v>-35.160076599999996</v>
+      </c>
+      <c r="C182">
+        <v>138.47175200000001</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G182">
+        <v>778</v>
+      </c>
+      <c r="H182">
+        <v>833</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>2611</v>
+      </c>
+      <c r="O182">
+        <v>4222</v>
+      </c>
+      <c r="P182" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183">
+        <v>-35.151825600000002</v>
+      </c>
+      <c r="C183">
+        <v>138.47262749999999</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F183">
+        <v>1167</v>
+      </c>
+      <c r="G183">
+        <v>1944</v>
+      </c>
+      <c r="H183">
+        <v>4111</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>167</v>
+      </c>
+      <c r="K183">
+        <v>222</v>
+      </c>
+      <c r="N183">
+        <v>4833</v>
+      </c>
+      <c r="O183">
+        <v>12444</v>
+      </c>
+      <c r="P183" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>128</v>
+      </c>
+      <c r="B184">
+        <v>-35.151313999999999</v>
+      </c>
+      <c r="C184">
+        <v>138.47341800000001</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F184">
+        <v>56</v>
+      </c>
+      <c r="G184">
+        <v>111</v>
+      </c>
+      <c r="H184">
+        <v>333</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>889</v>
+      </c>
+      <c r="N184">
+        <v>944</v>
+      </c>
+      <c r="O184">
+        <v>2333</v>
+      </c>
+      <c r="P184" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>129</v>
+      </c>
+      <c r="B185">
+        <v>-35.154650240000002</v>
+      </c>
+      <c r="C185">
+        <v>138.47929239999999</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F185">
+        <v>278</v>
+      </c>
+      <c r="G185">
+        <v>389</v>
+      </c>
+      <c r="H185">
+        <v>500</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>444</v>
+      </c>
+      <c r="N185">
+        <v>3333</v>
+      </c>
+      <c r="O185">
+        <v>4944</v>
+      </c>
+      <c r="P185" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C186">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45941</v>
+      </c>
+      <c r="H186">
+        <v>1507</v>
+      </c>
+      <c r="I186">
+        <v>1458</v>
+      </c>
+      <c r="K186">
+        <v>280</v>
+      </c>
+      <c r="N186">
+        <v>109</v>
+      </c>
+      <c r="O186">
+        <v>1896</v>
+      </c>
+      <c r="P186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>131</v>
+      </c>
+      <c r="B187">
+        <v>-35.078539999999997</v>
+      </c>
+      <c r="C187">
+        <v>138.49587</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G187" s="4"/>
+      <c r="H187">
+        <v>1242</v>
+      </c>
+      <c r="I187">
+        <v>1127</v>
+      </c>
+      <c r="K187">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N187">
+        <v>77</v>
+      </c>
+      <c r="O187">
+        <v>1392</v>
+      </c>
+      <c r="P187" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>83</v>
+      </c>
+      <c r="B188">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C188">
+        <v>138.47788</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G188" s="4"/>
+      <c r="H188">
+        <v>768</v>
+      </c>
+      <c r="I188">
+        <v>680</v>
+      </c>
+      <c r="K188">
+        <v>202</v>
+      </c>
+      <c r="N188">
+        <v>96</v>
+      </c>
+      <c r="O188">
+        <v>1066</v>
+      </c>
+      <c r="P188" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C189">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G189" s="4"/>
+      <c r="H189">
+        <v>1265</v>
+      </c>
+      <c r="I189">
+        <v>1170</v>
+      </c>
+      <c r="K189">
+        <v>285</v>
+      </c>
+      <c r="N189">
+        <v>100</v>
+      </c>
+      <c r="O189">
+        <v>1650</v>
+      </c>
+      <c r="P189" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>37</v>
+      </c>
+      <c r="B190">
+        <v>-34.289369999999998</v>
+      </c>
+      <c r="C190">
+        <v>138.01242999999999</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45948</v>
+      </c>
+      <c r="F190">
+        <v>444</v>
+      </c>
+      <c r="G190">
+        <v>444</v>
+      </c>
+      <c r="H190">
+        <v>5500</v>
+      </c>
+      <c r="I190">
+        <v>1833</v>
+      </c>
+      <c r="J190">
+        <v>71677</v>
+      </c>
+      <c r="K190">
+        <v>1444</v>
+      </c>
+      <c r="L190">
+        <v>111</v>
+      </c>
+      <c r="N190">
+        <v>222</v>
+      </c>
+      <c r="O190">
+        <v>15333</v>
+      </c>
+      <c r="P190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>133</v>
+      </c>
+      <c r="B191">
+        <v>-35.152626359999999</v>
+      </c>
+      <c r="C191">
+        <v>138.48516240000001</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F191">
+        <v>6444</v>
+      </c>
+      <c r="G191">
+        <v>722</v>
+      </c>
+      <c r="H191">
+        <v>2556</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>389</v>
+      </c>
+      <c r="M191">
+        <v>14000</v>
+      </c>
+      <c r="N191">
+        <v>3445</v>
+      </c>
+      <c r="O191">
+        <v>27556</v>
+      </c>
+      <c r="P191" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>134</v>
+      </c>
+      <c r="B192">
+        <v>-35.152888900000001</v>
+      </c>
+      <c r="C192">
+        <v>138.48833329999999</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F192">
+        <v>7167</v>
+      </c>
+      <c r="G192">
+        <v>500</v>
+      </c>
+      <c r="H192">
+        <v>1000</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>56</v>
+      </c>
+      <c r="M192">
+        <v>6667</v>
+      </c>
+      <c r="N192">
+        <v>1778</v>
+      </c>
+      <c r="O192">
+        <v>17168</v>
+      </c>
+      <c r="P192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>135</v>
+      </c>
+      <c r="B193">
+        <v>-35.157411799999998</v>
+      </c>
+      <c r="C193">
+        <v>138.49856840000001</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F193">
+        <v>667</v>
+      </c>
+      <c r="G193">
+        <v>1111</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>111</v>
+      </c>
+      <c r="M193">
+        <v>13333</v>
+      </c>
+      <c r="N193">
+        <v>889</v>
+      </c>
+      <c r="O193">
+        <v>16111</v>
+      </c>
+      <c r="P193" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>136</v>
+      </c>
+      <c r="B194">
+        <v>-35.172090599999997</v>
+      </c>
+      <c r="C194">
+        <v>138.495555</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F194">
+        <v>1111</v>
+      </c>
+      <c r="H194">
+        <v>56</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>278</v>
+      </c>
+      <c r="M194">
+        <v>1444</v>
+      </c>
+      <c r="N194">
+        <v>1389</v>
+      </c>
+      <c r="O194">
+        <v>4278</v>
+      </c>
+      <c r="P194" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>137</v>
+      </c>
+      <c r="B195">
+        <v>-35.174399000000001</v>
+      </c>
+      <c r="C195">
+        <v>138.4971697</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45890</v>
+      </c>
+      <c r="H195">
+        <v>56</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>278</v>
+      </c>
+      <c r="M195">
+        <v>1222</v>
+      </c>
+      <c r="N195">
+        <v>612</v>
+      </c>
+      <c r="O195">
+        <v>2168</v>
+      </c>
+      <c r="P195" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>138</v>
+      </c>
+      <c r="B196">
+        <v>-35.180773000000002</v>
+      </c>
+      <c r="C196">
+        <v>138.50123840000001</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G196">
+        <v>278</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>500</v>
+      </c>
+      <c r="M196">
+        <v>1056</v>
+      </c>
+      <c r="N196">
+        <v>1167</v>
+      </c>
+      <c r="O196">
+        <v>3001</v>
+      </c>
+      <c r="P196" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197">
+        <v>-35.181056900000002</v>
+      </c>
+      <c r="C197">
+        <v>138.4982273</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45890</v>
+      </c>
+      <c r="F197">
+        <v>56</v>
+      </c>
+      <c r="G197">
+        <v>167</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>333</v>
+      </c>
+      <c r="M197">
+        <v>1778</v>
+      </c>
+      <c r="N197">
+        <v>611</v>
+      </c>
+      <c r="O197">
+        <v>2945</v>
+      </c>
+      <c r="P197" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198">
+        <v>-35.180520399999999</v>
+      </c>
+      <c r="C198">
+        <v>138.50434089999999</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45890</v>
+      </c>
+      <c r="G198">
+        <v>222</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>111</v>
+      </c>
+      <c r="M198">
+        <v>556</v>
+      </c>
+      <c r="N198">
+        <v>389</v>
+      </c>
+      <c r="O198">
+        <v>1278</v>
+      </c>
+      <c r="P198" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>141</v>
+      </c>
+      <c r="B199">
+        <v>-35.759517729999999</v>
+      </c>
+      <c r="C199">
+        <v>137.79411350000001</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45878</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1555</v>
+      </c>
+      <c r="O199">
+        <v>1555</v>
+      </c>
+      <c r="P199" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>142</v>
+      </c>
+      <c r="B200">
+        <v>-35.786764689999998</v>
+      </c>
+      <c r="C200">
+        <v>137.77344500000001</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45878</v>
+      </c>
+      <c r="H200">
+        <v>333</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>3333</v>
+      </c>
+      <c r="N200">
+        <v>10667</v>
+      </c>
+      <c r="O200">
+        <v>14333</v>
+      </c>
+      <c r="P200" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>79</v>
+      </c>
+      <c r="B201">
+        <v>-34.804169999999999</v>
+      </c>
+      <c r="C201">
+        <v>138.53970000000001</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H201">
+        <v>70</v>
+      </c>
+      <c r="I201">
+        <v>61</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>4</v>
+      </c>
+      <c r="O201">
+        <v>75</v>
+      </c>
+      <c r="P201" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>83</v>
+      </c>
+      <c r="B202">
+        <v>-34.837600000000002</v>
+      </c>
+      <c r="C202">
+        <v>138.47788</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H202">
+        <v>848</v>
+      </c>
+      <c r="I202">
+        <v>772</v>
+      </c>
+      <c r="K202">
+        <v>48</v>
+      </c>
+      <c r="N202">
+        <v>42</v>
+      </c>
+      <c r="O202">
+        <v>938</v>
+      </c>
+      <c r="P202" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203">
+        <v>-34.873939999999997</v>
+      </c>
+      <c r="C203">
+        <v>138.48820000000001</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H203">
+        <v>312</v>
+      </c>
+      <c r="I203">
+        <v>204</v>
+      </c>
+      <c r="K203">
+        <v>190</v>
+      </c>
+      <c r="N203">
+        <v>63</v>
+      </c>
+      <c r="O203">
+        <v>565</v>
+      </c>
+      <c r="P203" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
